--- a/Code/Results/Cases/Case_9_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.02425827417933</v>
+        <v>12.97793241834616</v>
       </c>
       <c r="C2">
-        <v>9.748788880206252</v>
+        <v>9.283523170719764</v>
       </c>
       <c r="D2">
-        <v>5.659064218682961</v>
+        <v>5.691641859594548</v>
       </c>
       <c r="E2">
-        <v>8.906268317637188</v>
+        <v>8.719881939481374</v>
       </c>
       <c r="F2">
-        <v>18.66505714377439</v>
+        <v>18.0034034462023</v>
       </c>
       <c r="G2">
-        <v>23.65978657100972</v>
+        <v>22.04198330233109</v>
       </c>
       <c r="H2">
-        <v>2.890936083574609</v>
+        <v>2.755982059257745</v>
       </c>
       <c r="I2">
-        <v>3.582457407876649</v>
+        <v>3.409525347522774</v>
       </c>
       <c r="J2">
-        <v>9.571671995411563</v>
+        <v>9.620222693151725</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.69287513680005</v>
       </c>
       <c r="M2">
-        <v>11.26001387119199</v>
+        <v>10.653501820754</v>
       </c>
       <c r="N2">
-        <v>6.26356374050385</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.554216094989719</v>
+        <v>11.37675145457434</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.426305796678049</v>
       </c>
       <c r="Q2">
-        <v>15.63317917303327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.517242305876659</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.09002033793452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.1831129628189</v>
+        <v>12.16722505853608</v>
       </c>
       <c r="C3">
-        <v>9.663123808504045</v>
+        <v>9.13726690361797</v>
       </c>
       <c r="D3">
-        <v>5.457042946069244</v>
+        <v>5.466771337554098</v>
       </c>
       <c r="E3">
-        <v>8.776257871448239</v>
+        <v>8.613341841206317</v>
       </c>
       <c r="F3">
-        <v>18.46460032760383</v>
+        <v>17.8579010262574</v>
       </c>
       <c r="G3">
-        <v>23.48799392554859</v>
+        <v>22.00364483901831</v>
       </c>
       <c r="H3">
-        <v>3.063513072345518</v>
+        <v>2.9163420018883</v>
       </c>
       <c r="I3">
-        <v>3.72493052639509</v>
+        <v>3.536276186108325</v>
       </c>
       <c r="J3">
-        <v>9.61434953047241</v>
+        <v>9.64420259736821</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.84371232389157</v>
       </c>
       <c r="M3">
-        <v>10.73031385036484</v>
+        <v>10.7121117464427</v>
       </c>
       <c r="N3">
-        <v>6.101973167341782</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.159901153194525</v>
+        <v>10.83124610171658</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.268393346914235</v>
       </c>
       <c r="Q3">
-        <v>15.6508565015889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.122732380577633</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.14384794266265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.63427824752292</v>
+        <v>11.63858102472627</v>
       </c>
       <c r="C4">
-        <v>9.609630294815336</v>
+        <v>9.047129530043861</v>
       </c>
       <c r="D4">
-        <v>5.328733581996874</v>
+        <v>5.323894521920528</v>
       </c>
       <c r="E4">
-        <v>8.693918446638394</v>
+        <v>8.545636431718965</v>
       </c>
       <c r="F4">
-        <v>18.34773333866642</v>
+        <v>17.7739171451018</v>
       </c>
       <c r="G4">
-        <v>23.39122908918385</v>
+        <v>21.9903589327034</v>
       </c>
       <c r="H4">
-        <v>3.173457115822647</v>
+        <v>3.018531374795405</v>
       </c>
       <c r="I4">
-        <v>3.816400785241846</v>
+        <v>3.61793888040973</v>
       </c>
       <c r="J4">
-        <v>9.64294110086869</v>
+        <v>9.659813505753737</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.93806088287421</v>
       </c>
       <c r="M4">
-        <v>10.39101395747798</v>
+        <v>10.76345436496428</v>
       </c>
       <c r="N4">
-        <v>6.000696837012944</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.90921147520519</v>
+        <v>10.48196366301757</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.169784675724316</v>
       </c>
       <c r="Q4">
-        <v>15.66667277601396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.871678022357797</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.18092612444867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.39973292328298</v>
+        <v>11.41276346897814</v>
       </c>
       <c r="C5">
-        <v>9.589277836799335</v>
+        <v>9.012922481455711</v>
       </c>
       <c r="D5">
-        <v>5.276951365225473</v>
+        <v>5.266063489426108</v>
       </c>
       <c r="E5">
-        <v>8.657412403004578</v>
+        <v>8.515282805361284</v>
       </c>
       <c r="F5">
-        <v>18.29396370900099</v>
+        <v>17.73360786804598</v>
       </c>
       <c r="G5">
-        <v>23.34080119513736</v>
+        <v>21.97478750210211</v>
       </c>
       <c r="H5">
-        <v>3.219575597773884</v>
+        <v>3.061414771485588</v>
       </c>
       <c r="I5">
-        <v>3.857196645589642</v>
+        <v>3.655127718870349</v>
       </c>
       <c r="J5">
-        <v>9.653031936636189</v>
+        <v>9.66431581307358</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.97167524471427</v>
       </c>
       <c r="M5">
-        <v>10.25116480600102</v>
+        <v>10.7853520887567</v>
       </c>
       <c r="N5">
-        <v>5.959559904010467</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.804687341688055</v>
+        <v>10.33794865558239</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.129805306318545</v>
       </c>
       <c r="Q5">
-        <v>15.66896177968517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.766952266510254</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.19191703644075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.35694646796708</v>
+        <v>11.37158002352875</v>
       </c>
       <c r="C6">
-        <v>9.587980532190789</v>
+        <v>9.010469544419388</v>
       </c>
       <c r="D6">
-        <v>5.270180207128525</v>
+        <v>5.258294824072882</v>
       </c>
       <c r="E6">
-        <v>8.648459807734421</v>
+        <v>8.507525392613347</v>
       </c>
       <c r="F6">
-        <v>18.2756885446051</v>
+        <v>17.71792161577113</v>
       </c>
       <c r="G6">
-        <v>23.31647481502613</v>
+        <v>21.95691043561228</v>
       </c>
       <c r="H6">
-        <v>3.227664186083323</v>
+        <v>3.068950002522417</v>
       </c>
       <c r="I6">
-        <v>3.867244235989046</v>
+        <v>3.665140001775963</v>
       </c>
       <c r="J6">
-        <v>9.65211531372546</v>
+        <v>9.662535015522824</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.9708551535315</v>
       </c>
       <c r="M6">
-        <v>10.2300073781459</v>
+        <v>10.78573861509773</v>
       </c>
       <c r="N6">
-        <v>5.953455692086919</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.786813296608528</v>
+        <v>10.31604531776178</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.123857354282555</v>
       </c>
       <c r="Q6">
-        <v>15.66284779873013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.749053281744349</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.18756824521485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.62222149924758</v>
+        <v>11.6272478351683</v>
       </c>
       <c r="C7">
-        <v>9.615136766645135</v>
+        <v>9.054079438485168</v>
       </c>
       <c r="D7">
-        <v>5.333158479735862</v>
+        <v>5.33128497528998</v>
       </c>
       <c r="E7">
-        <v>8.685699618622904</v>
+        <v>8.537617260646812</v>
       </c>
       <c r="F7">
-        <v>18.32133682483861</v>
+        <v>17.73511295555146</v>
       </c>
       <c r="G7">
-        <v>23.34677425130229</v>
+        <v>22.01131666752224</v>
       </c>
       <c r="H7">
-        <v>3.17506307017379</v>
+        <v>3.020491859879266</v>
       </c>
       <c r="I7">
-        <v>3.825437699414473</v>
+        <v>3.628870809061314</v>
       </c>
       <c r="J7">
-        <v>9.635916829063936</v>
+        <v>9.622753828350117</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.91499638291783</v>
       </c>
       <c r="M7">
-        <v>10.39526308166099</v>
+        <v>10.75006477370841</v>
       </c>
       <c r="N7">
-        <v>6.002194526599252</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.906733491462587</v>
+        <v>10.48523267197016</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.170873439798154</v>
       </c>
       <c r="Q7">
-        <v>15.64880458772016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.869319402641139</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.15486793565805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.7300303334483</v>
+        <v>12.69513451216956</v>
       </c>
       <c r="C8">
-        <v>9.727428065264879</v>
+        <v>9.240801467524667</v>
       </c>
       <c r="D8">
-        <v>5.596902080069616</v>
+        <v>5.63145915529199</v>
       </c>
       <c r="E8">
-        <v>8.852046874688014</v>
+        <v>8.673355975020007</v>
       </c>
       <c r="F8">
-        <v>18.5613215332291</v>
+        <v>17.875780069895</v>
       </c>
       <c r="G8">
-        <v>23.54165737950323</v>
+        <v>22.1821722231244</v>
       </c>
       <c r="H8">
-        <v>2.950841892567767</v>
+        <v>2.813002632624268</v>
       </c>
       <c r="I8">
-        <v>3.641520591483762</v>
+        <v>3.466495592936954</v>
       </c>
       <c r="J8">
-        <v>9.576495861528137</v>
+        <v>9.521214148991399</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.70463257983453</v>
       </c>
       <c r="M8">
-        <v>11.08810826475047</v>
+        <v>10.64156000243102</v>
       </c>
       <c r="N8">
-        <v>6.21096090587556</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.418730333327566</v>
+        <v>11.19690742531955</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.373791262412273</v>
       </c>
       <c r="Q8">
-        <v>15.61475299819859</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.382038043319556</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.0552135643719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.66068270666857</v>
+        <v>14.55729656100617</v>
       </c>
       <c r="C9">
-        <v>9.930141224736005</v>
+        <v>9.592639200673696</v>
       </c>
       <c r="D9">
-        <v>6.070054095322712</v>
+        <v>6.16015827636534</v>
       </c>
       <c r="E9">
-        <v>9.170971829819468</v>
+        <v>8.934680640324837</v>
       </c>
       <c r="F9">
-        <v>19.12535193361002</v>
+        <v>18.28741219000095</v>
       </c>
       <c r="G9">
-        <v>24.07115201376286</v>
+        <v>22.44339895279674</v>
       </c>
       <c r="H9">
-        <v>2.540588431230136</v>
+        <v>2.432114437540341</v>
       </c>
       <c r="I9">
-        <v>3.298290931698071</v>
+        <v>3.160299458012462</v>
       </c>
       <c r="J9">
-        <v>9.492108193790411</v>
+        <v>9.448007360811204</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.35602505469497</v>
       </c>
       <c r="M9">
-        <v>12.32128620687808</v>
+        <v>10.58655640119649</v>
       </c>
       <c r="N9">
-        <v>6.598969009097795</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.35215404049499</v>
+        <v>12.46738394392175</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.754778795914032</v>
       </c>
       <c r="Q9">
-        <v>15.62049053666632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.3146137745461</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.95663088896499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.90805528960876</v>
+        <v>15.76563426783856</v>
       </c>
       <c r="C10">
-        <v>10.10344441470404</v>
+        <v>9.880845325824717</v>
       </c>
       <c r="D10">
-        <v>6.419402089931648</v>
+        <v>6.560781814259792</v>
       </c>
       <c r="E10">
-        <v>9.27301517761089</v>
+        <v>9.003830280472183</v>
       </c>
       <c r="F10">
-        <v>19.44267349774758</v>
+        <v>18.43245985159871</v>
       </c>
       <c r="G10">
-        <v>24.28774400171469</v>
+        <v>22.86452865023562</v>
       </c>
       <c r="H10">
-        <v>2.285986785301374</v>
+        <v>2.199781175548974</v>
       </c>
       <c r="I10">
-        <v>3.074572945631679</v>
+        <v>2.965597599922309</v>
       </c>
       <c r="J10">
-        <v>9.406254270542606</v>
+        <v>9.207962490718641</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.0280248321789</v>
       </c>
       <c r="M10">
-        <v>13.18096693603819</v>
+        <v>10.5304780981861</v>
       </c>
       <c r="N10">
-        <v>6.773796224705028</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.91162465958551</v>
+        <v>13.34637073255918</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.923765035850248</v>
       </c>
       <c r="Q10">
-        <v>15.56056263360981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.87308067129</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.77661072045066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.32255038084359</v>
+        <v>16.1978498856978</v>
       </c>
       <c r="C11">
-        <v>10.47895578382448</v>
+        <v>10.3627620155526</v>
       </c>
       <c r="D11">
-        <v>6.778861298278033</v>
+        <v>6.954724641615856</v>
       </c>
       <c r="E11">
-        <v>8.466999793015169</v>
+        <v>8.258729176289226</v>
       </c>
       <c r="F11">
-        <v>18.57331432225005</v>
+        <v>17.48890207181532</v>
       </c>
       <c r="G11">
-        <v>22.64338462188809</v>
+        <v>22.11951318593187</v>
       </c>
       <c r="H11">
-        <v>3.138839477220316</v>
+        <v>3.082518890922787</v>
       </c>
       <c r="I11">
-        <v>3.029790138177973</v>
+        <v>2.935199185877658</v>
       </c>
       <c r="J11">
-        <v>9.076503547695101</v>
+        <v>8.666034247488007</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.45612818212333</v>
       </c>
       <c r="M11">
-        <v>13.78241968781526</v>
+        <v>9.977156152556708</v>
       </c>
       <c r="N11">
-        <v>6.050388674075765</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.49347853487564</v>
+        <v>13.92827564913122</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.186308248454007</v>
       </c>
       <c r="Q11">
-        <v>14.80527331598362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.458157878278</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.99346933155463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.43026412131029</v>
+        <v>16.32752517736871</v>
       </c>
       <c r="C12">
-        <v>10.83211953139105</v>
+        <v>10.75447493541816</v>
       </c>
       <c r="D12">
-        <v>7.010669715081883</v>
+        <v>7.194685758712262</v>
       </c>
       <c r="E12">
-        <v>8.023309844436049</v>
+        <v>7.872759200834673</v>
       </c>
       <c r="F12">
-        <v>17.79775917187479</v>
+        <v>16.73408478526038</v>
       </c>
       <c r="G12">
-        <v>21.27052302280062</v>
+        <v>21.21050106910971</v>
       </c>
       <c r="H12">
-        <v>4.416033888093964</v>
+        <v>4.37673605653961</v>
       </c>
       <c r="I12">
-        <v>3.018351019613042</v>
+        <v>2.926315819184569</v>
       </c>
       <c r="J12">
-        <v>8.830132165129246</v>
+        <v>8.407232114002134</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.12084504472865</v>
       </c>
       <c r="M12">
-        <v>14.11246565616011</v>
+        <v>9.572154923744113</v>
       </c>
       <c r="N12">
-        <v>5.475800027064705</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.0200014462569</v>
+        <v>14.23895303413467</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.601295310390668</v>
       </c>
       <c r="Q12">
-        <v>14.21219272931505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.98751660626764</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.43806230388068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.30188446646099</v>
+        <v>16.22605976326744</v>
       </c>
       <c r="C13">
-        <v>11.18825785583215</v>
+        <v>11.11209355635535</v>
       </c>
       <c r="D13">
-        <v>7.168731428616011</v>
+        <v>7.333153801970258</v>
       </c>
       <c r="E13">
-        <v>7.854546755003137</v>
+        <v>7.758504003587993</v>
       </c>
       <c r="F13">
-        <v>17.00230734566338</v>
+        <v>16.06504626447407</v>
       </c>
       <c r="G13">
-        <v>19.95585141732882</v>
+        <v>19.89495524803576</v>
       </c>
       <c r="H13">
-        <v>5.783220757447529</v>
+        <v>5.751235175779623</v>
       </c>
       <c r="I13">
-        <v>3.04623181936161</v>
+        <v>2.94981310778396</v>
       </c>
       <c r="J13">
-        <v>8.623166653212577</v>
+        <v>8.322644215528376</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.91064609858224</v>
       </c>
       <c r="M13">
-        <v>14.26906272995325</v>
+        <v>9.257511267451795</v>
       </c>
       <c r="N13">
-        <v>5.005106991188804</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.463647690337327</v>
+        <v>14.37583427791407</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.123172794379094</v>
       </c>
       <c r="Q13">
-        <v>13.68320324696737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.433641894733007</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.01518349659213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.10143711609108</v>
+        <v>16.04716236064698</v>
       </c>
       <c r="C14">
-        <v>11.4487506356169</v>
+        <v>11.3561230025469</v>
       </c>
       <c r="D14">
-        <v>7.249236020103229</v>
+        <v>7.386943704289678</v>
       </c>
       <c r="E14">
-        <v>7.907502686975923</v>
+        <v>7.843782970382168</v>
       </c>
       <c r="F14">
-        <v>16.43032160378016</v>
+        <v>15.62583393817585</v>
       </c>
       <c r="G14">
-        <v>19.06185768644326</v>
+        <v>18.80904128149636</v>
       </c>
       <c r="H14">
-        <v>6.766141877929526</v>
+        <v>6.736638906752254</v>
       </c>
       <c r="I14">
-        <v>3.086182230487247</v>
+        <v>2.984176351843367</v>
       </c>
       <c r="J14">
-        <v>8.496824586161281</v>
+        <v>8.32067358777125</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.81115133669914</v>
       </c>
       <c r="M14">
-        <v>14.30380754336669</v>
+        <v>9.084108076003863</v>
       </c>
       <c r="N14">
-        <v>4.754951886136906</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.03174098166394</v>
+        <v>14.39621452916523</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.869299329674181</v>
       </c>
       <c r="Q14">
-        <v>13.34385673233089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.003192462890858</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.77467381135291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.99841344881646</v>
+        <v>15.95067395447428</v>
       </c>
       <c r="C15">
-        <v>11.50902042847257</v>
+        <v>11.40830536295039</v>
       </c>
       <c r="D15">
-        <v>7.25441141408213</v>
+        <v>7.380141093865281</v>
       </c>
       <c r="E15">
-        <v>7.941633351258153</v>
+        <v>7.885128125973244</v>
       </c>
       <c r="F15">
-        <v>16.28010667609002</v>
+        <v>15.52685784712035</v>
       </c>
       <c r="G15">
-        <v>18.84550352046056</v>
+        <v>18.47107026744091</v>
       </c>
       <c r="H15">
-        <v>6.996594650810003</v>
+        <v>6.967013428209083</v>
       </c>
       <c r="I15">
-        <v>3.109053519077651</v>
+        <v>3.004941027264953</v>
       </c>
       <c r="J15">
-        <v>8.472268807958562</v>
+        <v>8.343669055375686</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.80050763779518</v>
       </c>
       <c r="M15">
-        <v>14.27668644552448</v>
+        <v>9.056676494745213</v>
       </c>
       <c r="N15">
-        <v>4.706536818680485</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.908283502172489</v>
+        <v>14.36545074924519</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.820806010106633</v>
       </c>
       <c r="Q15">
-        <v>13.26981715324538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.8799778331912</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.73532293846957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.50191750903409</v>
+        <v>15.46493846502186</v>
       </c>
       <c r="C16">
-        <v>11.36192406012134</v>
+        <v>11.22832221048059</v>
       </c>
       <c r="D16">
-        <v>7.087230720400362</v>
+        <v>7.168083534958231</v>
       </c>
       <c r="E16">
-        <v>7.91742906627039</v>
+        <v>7.863645822719752</v>
       </c>
       <c r="F16">
-        <v>16.27299207787716</v>
+        <v>15.67365364486856</v>
       </c>
       <c r="G16">
-        <v>18.98409885039664</v>
+        <v>18.0192634488835</v>
       </c>
       <c r="H16">
-        <v>6.808432423847351</v>
+        <v>6.772467574784717</v>
       </c>
       <c r="I16">
-        <v>3.204692512000085</v>
+        <v>3.087195234999653</v>
       </c>
       <c r="J16">
-        <v>8.548247810105426</v>
+        <v>8.586567498537558</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.93972702903375</v>
       </c>
       <c r="M16">
-        <v>13.9036388683031</v>
+        <v>9.203277654240631</v>
       </c>
       <c r="N16">
-        <v>4.715602140401677</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.758071699596924</v>
+        <v>13.99213332286673</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.83802989834319</v>
       </c>
       <c r="Q16">
-        <v>13.39521189591598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.728774454642716</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.94926932289742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.22405821998301</v>
+        <v>15.18382583841168</v>
       </c>
       <c r="C17">
-        <v>11.10365833404997</v>
+        <v>10.95219144600988</v>
       </c>
       <c r="D17">
-        <v>6.912342040737138</v>
+        <v>6.978388159955393</v>
       </c>
       <c r="E17">
-        <v>7.843609166886288</v>
+        <v>7.776298003606828</v>
       </c>
       <c r="F17">
-        <v>16.5747113060104</v>
+        <v>16.00692580217833</v>
       </c>
       <c r="G17">
-        <v>19.56017364978694</v>
+        <v>18.32021150241537</v>
       </c>
       <c r="H17">
-        <v>6.113279293547696</v>
+        <v>6.069788117198384</v>
       </c>
       <c r="I17">
-        <v>3.257612476665344</v>
+        <v>3.13333885811255</v>
       </c>
       <c r="J17">
-        <v>8.672298309110364</v>
+        <v>8.775948250290577</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.11160100824297</v>
       </c>
       <c r="M17">
-        <v>13.59266299423366</v>
+        <v>9.394006523276126</v>
       </c>
       <c r="N17">
-        <v>4.841196575696521</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.87891124226277</v>
+        <v>13.68815644395923</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>4.971223580707904</v>
       </c>
       <c r="Q17">
-        <v>13.66794624393385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.84829941060293</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.23267905537345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.11712644775529</v>
+        <v>15.06020894806505</v>
       </c>
       <c r="C18">
-        <v>10.73955202614346</v>
+        <v>10.57314945302682</v>
       </c>
       <c r="D18">
-        <v>6.710636500621709</v>
+        <v>6.779366273226635</v>
       </c>
       <c r="E18">
-        <v>7.872489576600983</v>
+        <v>7.770403575675325</v>
       </c>
       <c r="F18">
-        <v>17.19367222620399</v>
+        <v>16.58235780550115</v>
       </c>
       <c r="G18">
-        <v>20.62229512615002</v>
+        <v>19.18685209137132</v>
       </c>
       <c r="H18">
-        <v>4.94330458232475</v>
+        <v>4.888223751321139</v>
       </c>
       <c r="I18">
-        <v>3.267857256384187</v>
+        <v>3.139688494499734</v>
       </c>
       <c r="J18">
-        <v>8.860145038709568</v>
+        <v>8.972274970957173</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.36424099305715</v>
       </c>
       <c r="M18">
-        <v>13.30133720816613</v>
+        <v>9.668646151068755</v>
       </c>
       <c r="N18">
-        <v>5.157045610708655</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.249403618060603</v>
+        <v>13.41177694284166</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.294646632520464</v>
       </c>
       <c r="Q18">
-        <v>14.1190797488234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.216977613502616</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.64416074934533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14484387876239</v>
+        <v>15.06218173665615</v>
       </c>
       <c r="C19">
-        <v>10.39877482379976</v>
+        <v>10.21020386025241</v>
       </c>
       <c r="D19">
-        <v>6.517859722942918</v>
+        <v>6.599155968000763</v>
       </c>
       <c r="E19">
-        <v>8.198741825822811</v>
+        <v>8.041424391696577</v>
       </c>
       <c r="F19">
-        <v>17.98145828025334</v>
+        <v>17.280969015004</v>
       </c>
       <c r="G19">
-        <v>21.95367561491698</v>
+        <v>20.34512962033557</v>
       </c>
       <c r="H19">
-        <v>3.612004326747533</v>
+        <v>3.538820889835285</v>
       </c>
       <c r="I19">
-        <v>3.258046759154191</v>
+        <v>3.132357155882092</v>
       </c>
       <c r="J19">
-        <v>9.081025759173746</v>
+        <v>9.168108422854781</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.66961104408748</v>
       </c>
       <c r="M19">
-        <v>13.06453076130951</v>
+        <v>9.997355703710852</v>
       </c>
       <c r="N19">
-        <v>5.694203680781729</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.788607893523087</v>
+        <v>13.19460626106015</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.838623346552864</v>
       </c>
       <c r="Q19">
-        <v>14.66825957253847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.753997457826081</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.12111072911535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.56864383046995</v>
+        <v>15.43632156781154</v>
       </c>
       <c r="C20">
-        <v>10.08093207405174</v>
+        <v>9.845158287787886</v>
       </c>
       <c r="D20">
-        <v>6.344799388772691</v>
+        <v>6.463362841248506</v>
       </c>
       <c r="E20">
-        <v>9.220313391244689</v>
+        <v>8.962300338765003</v>
       </c>
       <c r="F20">
-        <v>19.27808466403167</v>
+        <v>18.36287746620928</v>
       </c>
       <c r="G20">
-        <v>24.09088706300628</v>
+        <v>22.39240522232367</v>
       </c>
       <c r="H20">
-        <v>2.353847671519351</v>
+        <v>2.260523992961554</v>
       </c>
       <c r="I20">
-        <v>3.160892558951988</v>
+        <v>3.048462645776705</v>
       </c>
       <c r="J20">
-        <v>9.404885175066326</v>
+        <v>9.349197887222125</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.0889722164702</v>
       </c>
       <c r="M20">
-        <v>12.97804888545043</v>
+        <v>10.51544188268559</v>
       </c>
       <c r="N20">
-        <v>6.72983605725477</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.76132549796966</v>
+        <v>13.14014829688463</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.881851148382114</v>
       </c>
       <c r="Q20">
-        <v>15.51703228465001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.72303479666276</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.80130164881199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.50336832074831</v>
+        <v>16.34087676183278</v>
       </c>
       <c r="C21">
-        <v>10.17088845748508</v>
+        <v>9.982461849646837</v>
       </c>
       <c r="D21">
-        <v>6.56681280012993</v>
+        <v>6.775951212739659</v>
       </c>
       <c r="E21">
-        <v>9.478382365636104</v>
+        <v>9.179382601685818</v>
       </c>
       <c r="F21">
-        <v>19.72390140382285</v>
+        <v>18.41482174007182</v>
       </c>
       <c r="G21">
-        <v>24.60574027428934</v>
+        <v>24.24996135547612</v>
       </c>
       <c r="H21">
-        <v>2.121075823738347</v>
+        <v>2.050369874271315</v>
       </c>
       <c r="I21">
-        <v>2.982555362610311</v>
+        <v>2.898188946629728</v>
       </c>
       <c r="J21">
-        <v>9.399146817451923</v>
+        <v>8.747854632639623</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.84507257851612</v>
       </c>
       <c r="M21">
-        <v>13.57040495541964</v>
+        <v>10.48490204225391</v>
       </c>
       <c r="N21">
-        <v>7.011376577767342</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.29425877520688</v>
+        <v>13.7403070144703</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.156670128023999</v>
       </c>
       <c r="Q21">
-        <v>15.61990328380535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.25519947291998</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.62138667929036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.08801092142233</v>
+        <v>16.90871127891583</v>
       </c>
       <c r="C22">
-        <v>10.23318770753161</v>
+        <v>10.07546692918482</v>
       </c>
       <c r="D22">
-        <v>6.713311531753914</v>
+        <v>6.98298423256548</v>
       </c>
       <c r="E22">
-        <v>9.594011064654913</v>
+        <v>9.273407121725825</v>
       </c>
       <c r="F22">
-        <v>19.99141849342933</v>
+        <v>18.41305835933399</v>
       </c>
       <c r="G22">
-        <v>24.90161806722079</v>
+        <v>25.56493813046152</v>
       </c>
       <c r="H22">
-        <v>1.984522867483392</v>
+        <v>1.92815631037909</v>
       </c>
       <c r="I22">
-        <v>2.859719515560474</v>
+        <v>2.790812209736416</v>
       </c>
       <c r="J22">
-        <v>9.390064413591077</v>
+        <v>8.395378919169776</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.67578638022887</v>
       </c>
       <c r="M22">
-        <v>13.94999274205805</v>
+        <v>10.45523136236187</v>
       </c>
       <c r="N22">
-        <v>7.139562658644053</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.59419399257652</v>
+        <v>14.12343101704058</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.280326856695826</v>
       </c>
       <c r="Q22">
-        <v>15.67266876979659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.55455982738032</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.47792408113527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.78613760707952</v>
+        <v>16.61485760746667</v>
       </c>
       <c r="C23">
-        <v>10.19182012215975</v>
+        <v>10.01624081420942</v>
       </c>
       <c r="D23">
-        <v>6.63028553999922</v>
+        <v>6.860743066932552</v>
       </c>
       <c r="E23">
-        <v>9.540509505894978</v>
+        <v>9.230938718786154</v>
       </c>
       <c r="F23">
-        <v>19.87557132837043</v>
+        <v>18.47273641256639</v>
       </c>
       <c r="G23">
-        <v>24.7903450890163</v>
+        <v>24.7321671887652</v>
       </c>
       <c r="H23">
-        <v>2.056248518501754</v>
+        <v>1.99163350665377</v>
       </c>
       <c r="I23">
-        <v>2.913614485472186</v>
+        <v>2.833643929607593</v>
       </c>
       <c r="J23">
-        <v>9.402822645494053</v>
+        <v>8.631932658799952</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.78933887148103</v>
       </c>
       <c r="M23">
-        <v>13.74277825773318</v>
+        <v>10.5011150370614</v>
       </c>
       <c r="N23">
-        <v>7.069210116579415</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.43610150895443</v>
+        <v>13.9157738744769</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.212999668404699</v>
       </c>
       <c r="Q23">
-        <v>15.66416979435942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.39663495804528</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.59628787714627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.57580939441437</v>
+        <v>15.44058665677808</v>
       </c>
       <c r="C24">
-        <v>10.04714527556065</v>
+        <v>9.796018862427506</v>
       </c>
       <c r="D24">
-        <v>6.314779066665007</v>
+        <v>6.433669902811126</v>
       </c>
       <c r="E24">
-        <v>9.32045302315149</v>
+        <v>9.05528169116535</v>
       </c>
       <c r="F24">
-        <v>19.40446904624599</v>
+        <v>18.47979319053696</v>
       </c>
       <c r="G24">
-        <v>24.31317132698261</v>
+        <v>22.58479351691989</v>
       </c>
       <c r="H24">
-        <v>2.335359603639139</v>
+        <v>2.241907368728164</v>
       </c>
       <c r="I24">
-        <v>3.142560295324564</v>
+        <v>3.026860223815687</v>
       </c>
       <c r="J24">
-        <v>9.443748850602937</v>
+        <v>9.387167022911122</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.15286309921563</v>
       </c>
       <c r="M24">
-        <v>12.93855786428835</v>
+        <v>10.58217907699242</v>
       </c>
       <c r="N24">
-        <v>6.800631749526274</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.81576551752052</v>
+        <v>13.10262793772675</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.953609206659851</v>
       </c>
       <c r="Q24">
-        <v>15.61209047479263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.77715017353328</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.88732907764108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.15219723278353</v>
+        <v>14.0663781666322</v>
       </c>
       <c r="C25">
-        <v>9.887609490829805</v>
+        <v>9.518230489801139</v>
       </c>
       <c r="D25">
-        <v>5.954637234619101</v>
+        <v>6.026353659764756</v>
       </c>
       <c r="E25">
-        <v>9.073972594345721</v>
+        <v>8.854285542220943</v>
       </c>
       <c r="F25">
-        <v>18.9234443532318</v>
+        <v>18.1478174401416</v>
       </c>
       <c r="G25">
-        <v>23.84410398353567</v>
+        <v>22.19977063010262</v>
       </c>
       <c r="H25">
-        <v>2.649851136140534</v>
+        <v>2.533049350671377</v>
       </c>
       <c r="I25">
-        <v>3.40327038534851</v>
+        <v>3.257653348741146</v>
       </c>
       <c r="J25">
-        <v>9.50009109150357</v>
+        <v>9.496818851622551</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.43174845252318</v>
       </c>
       <c r="M25">
-        <v>12.01042882704633</v>
+        <v>10.5720989841417</v>
       </c>
       <c r="N25">
-        <v>6.499642882773288</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.10616696419893</v>
+        <v>12.14750689297547</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.65725517424357</v>
       </c>
       <c r="Q25">
-        <v>15.58270976054541</v>
+        <v>10.06901740904559</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.96287539852625</v>
       </c>
     </row>
   </sheetData>
